--- a/DS11.txtmatrix_output.xlsx
+++ b/DS11.txtmatrix_output.xlsx
@@ -462,13 +462,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1859940587473294</v>
+        <v>0.02181873595251439</v>
       </c>
       <c r="C2" t="n">
-        <v>1.467482389109749</v>
+        <v>1.236544180803886</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -479,13 +479,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2008834002487024</v>
+        <v>0.02299358629819625</v>
       </c>
       <c r="C3" t="n">
-        <v>1.344331298660747</v>
+        <v>1.171548396773182</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -496,13 +496,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B4" t="n">
-        <v>0.2064323185421498</v>
+        <v>0.02430734747662928</v>
       </c>
       <c r="C4" t="n">
-        <v>1.327075651297182</v>
+        <v>1.113545567965341</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -513,13 +513,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1928952134690087</v>
+        <v>0.02470267557091099</v>
       </c>
       <c r="C5" t="n">
-        <v>1.476364959877342</v>
+        <v>1.102231954890871</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -530,13 +530,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2001971291875178</v>
+        <v>0.02364436914804193</v>
       </c>
       <c r="C6" t="n">
-        <v>1.323517238103408</v>
+        <v>1.125956629521508</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -547,13 +547,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B7" t="n">
-        <v>0.1935863754888562</v>
+        <v>0.02405393829374761</v>
       </c>
       <c r="C7" t="n">
-        <v>1.433879993810546</v>
+        <v>1.109349885979728</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -564,50 +564,50 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>922</v>
+        <v>1014</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1649828063154368</v>
+        <v>0.02363192590967079</v>
       </c>
       <c r="C8" t="n">
-        <v>1.6604839600942</v>
+        <v>1.132486394671661</v>
       </c>
       <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
         <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>777</v>
+        <v>1016</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1696187092244198</v>
+        <v>0.02196479061206423</v>
       </c>
       <c r="C9" t="n">
-        <v>1.669785102139907</v>
+        <v>1.231369992505348</v>
       </c>
       <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
         <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1019</v>
+        <v>922</v>
       </c>
       <c r="B10" t="n">
-        <v>0.07922109415727532</v>
+        <v>0.02033384824628917</v>
       </c>
       <c r="C10" t="n">
-        <v>3.403654740444844</v>
+        <v>1.324076803114848</v>
       </c>
       <c r="D10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -615,16 +615,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>998</v>
+        <v>777</v>
       </c>
       <c r="B11" t="n">
-        <v>0.08289235078508531</v>
+        <v>0.02165906653599218</v>
       </c>
       <c r="C11" t="n">
-        <v>3.410254052122375</v>
+        <v>1.251411871804186</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -632,13 +632,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1002</v>
+        <v>1019</v>
       </c>
       <c r="B12" t="n">
-        <v>0.103499464437556</v>
+        <v>0.00723303025260477</v>
       </c>
       <c r="C12" t="n">
-        <v>2.73126026971219</v>
+        <v>3.601017711646175</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -649,13 +649,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1017</v>
+        <v>998</v>
       </c>
       <c r="B13" t="n">
-        <v>0.1051727599490296</v>
+        <v>0.007924062940571559</v>
       </c>
       <c r="C13" t="n">
-        <v>2.595187250225514</v>
+        <v>3.292484379652809</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -666,13 +666,13 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1005</v>
+        <v>1017</v>
       </c>
       <c r="B14" t="n">
-        <v>0.108033642662569</v>
+        <v>0.01134598057836373</v>
       </c>
       <c r="C14" t="n">
-        <v>2.526463043954345</v>
+        <v>2.306480472854315</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -683,13 +683,13 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1181959480184581</v>
+        <v>0.01177389979933354</v>
       </c>
       <c r="C15" t="n">
-        <v>2.383962399227893</v>
+        <v>2.231219495028081</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -700,13 +700,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1018</v>
+        <v>1005</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1193358897763381</v>
+        <v>0.0124783555176391</v>
       </c>
       <c r="C16" t="n">
-        <v>2.361189884662584</v>
+        <v>2.109141908676702</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -717,13 +717,13 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1000</v>
+        <v>1008</v>
       </c>
       <c r="B17" t="n">
-        <v>0.123261667289692</v>
+        <v>0.01359320788154175</v>
       </c>
       <c r="C17" t="n">
-        <v>2.222518237841657</v>
+        <v>1.933439423833653</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -734,13 +734,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>995</v>
+        <v>1018</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1355941854833059</v>
+        <v>0.01430862107979146</v>
       </c>
       <c r="C18" t="n">
-        <v>2.099758353178649</v>
+        <v>1.83598841918238</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -751,13 +751,13 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1373059050540893</v>
+        <v>0.01536682171036876</v>
       </c>
       <c r="C19" t="n">
-        <v>1.969882966529771</v>
+        <v>1.741497766872371</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -768,13 +768,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1003</v>
+        <v>995</v>
       </c>
       <c r="B20" t="n">
-        <v>0.1408135898270579</v>
+        <v>0.01705916777045036</v>
       </c>
       <c r="C20" t="n">
-        <v>2.002021263699607</v>
+        <v>1.580165214869417</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -785,13 +785,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1006</v>
+        <v>999</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1416561885106062</v>
+        <v>0.0175038289352167</v>
       </c>
       <c r="C21" t="n">
-        <v>1.926799023470224</v>
+        <v>1.521296938674197</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -802,13 +802,13 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1010</v>
+        <v>1003</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1490239709318874</v>
+        <v>0.0178363796812123</v>
       </c>
       <c r="C22" t="n">
-        <v>1.891721172699758</v>
+        <v>1.502963185104772</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -819,13 +819,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>996</v>
+        <v>1006</v>
       </c>
       <c r="B23" t="n">
-        <v>0.1510803254199856</v>
+        <v>0.01816227700075066</v>
       </c>
       <c r="C23" t="n">
-        <v>1.82961273476793</v>
+        <v>1.459452978739943</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -836,13 +836,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="B24" t="n">
-        <v>0.1531903250669901</v>
+        <v>0.01827518759560462</v>
       </c>
       <c r="C24" t="n">
-        <v>1.840271576735441</v>
+        <v>1.457176381719232</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -853,13 +853,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>1012</v>
+        <v>996</v>
       </c>
       <c r="B25" t="n">
-        <v>0.155477537567624</v>
+        <v>0.01884422180987029</v>
       </c>
       <c r="C25" t="n">
-        <v>1.785335909163312</v>
+        <v>1.414696571994085</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -870,13 +870,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1004</v>
+        <v>1015</v>
       </c>
       <c r="B26" t="n">
-        <v>0.1645237497417559</v>
+        <v>0.01884855386695547</v>
       </c>
       <c r="C26" t="n">
-        <v>1.737539551452343</v>
+        <v>1.42408001681775</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -887,13 +887,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>997</v>
+        <v>1012</v>
       </c>
       <c r="B27" t="n">
-        <v>0.1700103096478781</v>
+        <v>0.02007103099929012</v>
       </c>
       <c r="C27" t="n">
-        <v>1.625892499894865</v>
+        <v>1.329104045782235</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -904,13 +904,13 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>994</v>
+        <v>1004</v>
       </c>
       <c r="B28" t="n">
-        <v>0.1716587990912684</v>
+        <v>0.02043488914538633</v>
       </c>
       <c r="C28" t="n">
-        <v>1.617042833558343</v>
+        <v>1.30428039413016</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -921,13 +921,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>1016</v>
+        <v>994</v>
       </c>
       <c r="B29" t="n">
-        <v>0.1738690793878777</v>
+        <v>0.02141144670178965</v>
       </c>
       <c r="C29" t="n">
-        <v>1.535834190827616</v>
+        <v>1.244745905467899</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>

--- a/DS11.txtmatrix_output.xlsx
+++ b/DS11.txtmatrix_output.xlsx
@@ -462,13 +462,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>997</v>
+        <v>1001</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02181873595251439</v>
+        <v>0.02116944192618388</v>
       </c>
       <c r="C2" t="n">
-        <v>1.236544180803886</v>
+        <v>1.17967736620937</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -479,13 +479,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1001</v>
+        <v>1007</v>
       </c>
       <c r="B3" t="n">
-        <v>0.02299358629819625</v>
+        <v>0.02225851895216008</v>
       </c>
       <c r="C3" t="n">
-        <v>1.171548396773182</v>
+        <v>1.116128853773575</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -496,13 +496,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1007</v>
+        <v>1009</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02430734747662928</v>
+        <v>0.02261769617576134</v>
       </c>
       <c r="C4" t="n">
-        <v>1.113545567965341</v>
+        <v>1.101908518570133</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -513,13 +513,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1009</v>
+        <v>1011</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02470267557091099</v>
+        <v>0.0217256951907683</v>
       </c>
       <c r="C5" t="n">
-        <v>1.102231954890871</v>
+        <v>1.154944531350209</v>
       </c>
       <c r="D5" t="n">
         <v>1</v>
@@ -530,13 +530,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1011</v>
+        <v>1013</v>
       </c>
       <c r="B6" t="n">
-        <v>0.02364436914804193</v>
+        <v>0.02207683147259174</v>
       </c>
       <c r="C6" t="n">
-        <v>1.125956629521508</v>
+        <v>1.135818866763482</v>
       </c>
       <c r="D6" t="n">
         <v>1</v>
@@ -547,13 +547,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B7" t="n">
-        <v>0.02405393829374761</v>
+        <v>0.02171728068923968</v>
       </c>
       <c r="C7" t="n">
-        <v>1.109349885979728</v>
+        <v>1.150948982030107</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -564,50 +564,50 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1014</v>
+        <v>922</v>
       </c>
       <c r="B8" t="n">
-        <v>0.02363192590967079</v>
+        <v>0.01897687033814854</v>
       </c>
       <c r="C8" t="n">
-        <v>1.132486394671661</v>
+        <v>1.313316244586519</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1016</v>
+        <v>777</v>
       </c>
       <c r="B9" t="n">
-        <v>0.02196479061206423</v>
+        <v>0.01989110603768515</v>
       </c>
       <c r="C9" t="n">
-        <v>1.231369992505348</v>
+        <v>1.261986673058783</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>922</v>
+        <v>1019</v>
       </c>
       <c r="B10" t="n">
-        <v>0.02033384824628917</v>
+        <v>0.007103742818826296</v>
       </c>
       <c r="C10" t="n">
-        <v>1.324076803114848</v>
+        <v>3.504670831499316</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -615,16 +615,16 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>777</v>
+        <v>998</v>
       </c>
       <c r="B11" t="n">
-        <v>0.02165906653599218</v>
+        <v>0.007623803372063869</v>
       </c>
       <c r="C11" t="n">
-        <v>1.251411871804186</v>
+        <v>3.289077705861569</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -632,13 +632,13 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B12" t="n">
-        <v>0.00723303025260477</v>
+        <v>0.01105065253642376</v>
       </c>
       <c r="C12" t="n">
-        <v>3.601017711646175</v>
+        <v>2.259876637446486</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -649,13 +649,13 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>998</v>
+        <v>1002</v>
       </c>
       <c r="B13" t="n">
-        <v>0.007924062940571559</v>
+        <v>0.01112389366559289</v>
       </c>
       <c r="C13" t="n">
-        <v>3.292484379652809</v>
+        <v>2.254182074976804</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -666,13 +666,13 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1017</v>
+        <v>1005</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01134598057836373</v>
+        <v>0.01177781691494416</v>
       </c>
       <c r="C14" t="n">
-        <v>2.306480472854315</v>
+        <v>2.120351477353663</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -683,13 +683,13 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1002</v>
+        <v>1008</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01177389979933354</v>
+        <v>0.0129765660399425</v>
       </c>
       <c r="C15" t="n">
-        <v>2.231219495028081</v>
+        <v>1.932275118137576</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -700,13 +700,13 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1005</v>
+        <v>1018</v>
       </c>
       <c r="B16" t="n">
-        <v>0.0124783555176391</v>
+        <v>0.01342361562572474</v>
       </c>
       <c r="C16" t="n">
-        <v>2.109141908676702</v>
+        <v>1.867924140333554</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -717,13 +717,13 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1008</v>
+        <v>1000</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01359320788154175</v>
+        <v>0.01432175401276902</v>
       </c>
       <c r="C17" t="n">
-        <v>1.933439423833653</v>
+        <v>1.74019411758378</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -734,13 +734,13 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1018</v>
+        <v>995</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01430862107979146</v>
+        <v>0.01586454969885904</v>
       </c>
       <c r="C18" t="n">
-        <v>1.83598841918238</v>
+        <v>1.583861316688012</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -751,13 +751,13 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B19" t="n">
-        <v>0.01536682171036876</v>
+        <v>0.01626420951242175</v>
       </c>
       <c r="C19" t="n">
-        <v>1.741497766872371</v>
+        <v>1.529016274555361</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -768,13 +768,13 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>995</v>
+        <v>1003</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01705916777045036</v>
+        <v>0.01659339246935499</v>
       </c>
       <c r="C20" t="n">
-        <v>1.580165214869417</v>
+        <v>1.510815706320408</v>
       </c>
       <c r="D20" t="n">
         <v>1</v>
@@ -785,13 +785,13 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>999</v>
+        <v>1006</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0175038289352167</v>
+        <v>0.01682682419330269</v>
       </c>
       <c r="C21" t="n">
-        <v>1.521296938674197</v>
+        <v>1.484125061789286</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -802,13 +802,13 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>1003</v>
+        <v>1010</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0178363796812123</v>
+        <v>0.01697813929268025</v>
       </c>
       <c r="C22" t="n">
-        <v>1.502963185104772</v>
+        <v>1.476578648088279</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -819,13 +819,13 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1006</v>
+        <v>1015</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01816227700075066</v>
+        <v>0.01749516178186555</v>
       </c>
       <c r="C23" t="n">
-        <v>1.459452978739943</v>
+        <v>1.432942334367318</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -836,13 +836,13 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>1010</v>
+        <v>996</v>
       </c>
       <c r="B24" t="n">
-        <v>0.01827518759560462</v>
+        <v>0.01760565575165465</v>
       </c>
       <c r="C24" t="n">
-        <v>1.457176381719232</v>
+        <v>1.419232015281272</v>
       </c>
       <c r="D24" t="n">
         <v>1</v>
@@ -853,13 +853,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>996</v>
+        <v>1012</v>
       </c>
       <c r="B25" t="n">
-        <v>0.01884422180987029</v>
+        <v>0.01852464213450617</v>
       </c>
       <c r="C25" t="n">
-        <v>1.414696571994085</v>
+        <v>1.349309850104094</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -870,13 +870,13 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>1015</v>
+        <v>1004</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01884855386695547</v>
+        <v>0.01901220938797412</v>
       </c>
       <c r="C26" t="n">
-        <v>1.42408001681775</v>
+        <v>1.32068368938392</v>
       </c>
       <c r="D26" t="n">
         <v>1</v>
@@ -887,13 +887,13 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1012</v>
+        <v>994</v>
       </c>
       <c r="B27" t="n">
-        <v>0.02007103099929012</v>
+        <v>0.01979483206450572</v>
       </c>
       <c r="C27" t="n">
-        <v>1.329104045782235</v>
+        <v>1.262727666508579</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -904,13 +904,13 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>1004</v>
+        <v>997</v>
       </c>
       <c r="B28" t="n">
-        <v>0.02043488914538633</v>
+        <v>0.0199805972097544</v>
       </c>
       <c r="C28" t="n">
-        <v>1.30428039413016</v>
+        <v>1.250538711654269</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -921,13 +921,13 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>994</v>
+        <v>1016</v>
       </c>
       <c r="B29" t="n">
-        <v>0.02141144670178965</v>
+        <v>0.02022521363832424</v>
       </c>
       <c r="C29" t="n">
-        <v>1.244745905467899</v>
+        <v>1.230371312043975</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
